--- a/EC330/HW3/grades.xlsx
+++ b/EC330/HW3/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Desktop\527\EC330\HW3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EC527\EC330\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t xml:space="preserve">IgorPereiraDePaula </t>
   </si>
@@ -161,13 +161,70 @@
     <t>algorithm doesn’t work. No counterexample</t>
   </si>
   <si>
-    <t>algotihm does work. Wrong running time.</t>
-  </si>
-  <si>
     <t>wrong runtime</t>
   </si>
   <si>
     <t>not most efficient</t>
+  </si>
+  <si>
+    <t>no analysis</t>
+  </si>
+  <si>
+    <t>Analysis is off, since fetch itself takes n time, the final run time is n^2lg(n)</t>
+  </si>
+  <si>
+    <t>no runtime</t>
+  </si>
+  <si>
+    <t>Can also use counting sort for less overhead</t>
+  </si>
+  <si>
+    <t>This will take n^2 lg(n) time as fetch costs n time as well</t>
+  </si>
+  <si>
+    <t>counting sort would be faster</t>
+  </si>
+  <si>
+    <t>Not optimal runtime</t>
+  </si>
+  <si>
+    <t>no runtime analysis</t>
+  </si>
+  <si>
+    <t>fetching all elements wil take n^2 lg(n)</t>
+  </si>
+  <si>
+    <t>runtime for counting sort?</t>
+  </si>
+  <si>
+    <t>the algorithm does work</t>
+  </si>
+  <si>
+    <t>algorithm fails</t>
+  </si>
+  <si>
+    <t>should be correct order</t>
+  </si>
+  <si>
+    <t>This means it runs in n^2 lg(n) since k is lg(n) and fetch takes n time</t>
+  </si>
+  <si>
+    <t>algorithm doesn’t work</t>
+  </si>
+  <si>
+    <t>algorithm is correct</t>
+  </si>
+  <si>
+    <t>algorithm does work. Wrong running time.</t>
+  </si>
+  <si>
+    <t>inner loop takes n^2 time as fetch takes n time. Outermost loop takes lg(n) time</t>
+  </si>
+  <si>
+    <t>radix sort would be faster</t>
+  </si>
+  <si>
+    <t>improper analysis</t>
   </si>
 </sst>
 </file>
@@ -487,8 +544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +610,7 @@
       </c>
       <c r="B2">
         <f>SUM(C2,E2,G2,I2,K2,M2,O2)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -564,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>45</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -579,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2">
         <v>25</v>
@@ -597,7 +655,34 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B36" si="0">SUM(C3,E3,G3,I3,K3,M3,O3)</f>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
       </c>
       <c r="P3" t="s">
         <v>43</v>
@@ -609,7 +694,37 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <v>27</v>
       </c>
       <c r="P4" t="s">
         <v>43</v>
@@ -623,6 +738,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
       <c r="P5" t="s">
         <v>43</v>
       </c>
@@ -635,6 +789,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
       <c r="P6" t="s">
         <v>43</v>
       </c>
@@ -645,7 +838,28 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
       </c>
       <c r="P7" t="s">
         <v>43</v>
@@ -657,7 +871,31 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8">
+        <v>30</v>
       </c>
       <c r="P8" t="s">
         <v>43</v>
@@ -669,7 +907,31 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -681,7 +943,31 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93.5</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10">
+        <v>28.5</v>
       </c>
       <c r="P10" t="s">
         <v>43</v>
@@ -693,7 +979,37 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
       </c>
       <c r="P11" t="s">
         <v>43</v>
@@ -705,6 +1021,30 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
@@ -717,7 +1057,31 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13">
+        <v>30</v>
       </c>
       <c r="P13" t="s">
         <v>43</v>
@@ -729,7 +1093,31 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14">
+        <v>30</v>
       </c>
       <c r="P14" t="s">
         <v>43</v>
@@ -743,6 +1131,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
       <c r="P15" t="s">
         <v>43</v>
       </c>
@@ -755,6 +1182,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
       <c r="P16" t="s">
         <v>43</v>
       </c>
@@ -767,6 +1233,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
       <c r="P17" t="s">
         <v>43</v>
       </c>
@@ -779,6 +1284,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
       <c r="P18" t="s">
         <v>43</v>
       </c>
@@ -789,7 +1333,40 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19">
+        <v>30</v>
       </c>
       <c r="P19" t="s">
         <v>43</v>
@@ -801,7 +1378,31 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
       </c>
       <c r="P20" t="s">
         <v>43</v>
@@ -813,7 +1414,37 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21">
+        <v>30</v>
       </c>
       <c r="P21" t="s">
         <v>43</v>
@@ -825,6 +1456,36 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
@@ -837,6 +1498,33 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
@@ -849,7 +1537,31 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>30</v>
       </c>
       <c r="P24" t="s">
         <v>43</v>
@@ -861,6 +1573,36 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
@@ -875,6 +1617,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
       <c r="P26" t="s">
         <v>43</v>
       </c>
@@ -885,7 +1666,34 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>30</v>
       </c>
       <c r="P27" t="s">
         <v>43</v>
@@ -897,7 +1705,37 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28">
+        <v>30</v>
       </c>
       <c r="P28" t="s">
         <v>43</v>
@@ -909,7 +1747,43 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29">
+        <v>30</v>
       </c>
       <c r="P29" t="s">
         <v>43</v>
@@ -921,7 +1795,43 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30">
+        <v>30</v>
       </c>
       <c r="P30" t="s">
         <v>43</v>
@@ -933,7 +1843,31 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31">
+        <v>27</v>
       </c>
       <c r="P31" t="s">
         <v>43</v>
@@ -945,7 +1879,43 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
       </c>
       <c r="P32" t="s">
         <v>43</v>
@@ -957,7 +1927,34 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
       </c>
       <c r="P33" t="s">
         <v>43</v>
@@ -969,7 +1966,31 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34">
+        <v>30</v>
       </c>
       <c r="P34" t="s">
         <v>43</v>
@@ -983,6 +2004,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
       <c r="P35" t="s">
         <v>43</v>
       </c>
@@ -993,7 +2053,31 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36">
+        <v>30</v>
       </c>
       <c r="P36" t="s">
         <v>43</v>
